--- a/exceltocsv/public/reports/employee_dtr/Biana,Kristine Joy.xlsx
+++ b/exceltocsv/public/reports/employee_dtr/Biana,Kristine Joy.xlsx
@@ -104,7 +104,7 @@
     <t>21:01:27</t>
   </si>
   <si>
-    <t>~OT Enrolled PO/SI/DR's in Xero; Scanned and Photocopy PETRON files for filing; filed client and suppliers documents.</t>
+    <t>~OT ~ = Enrolled PO/SI/DR's in Xero; Scanned and Photocopy PETRON files for filing; filed client and suppliers documents.</t>
   </si>
   <si>
     <t>05-13-2015</t>
@@ -140,7 +140,7 @@
     <t>18:30:00</t>
   </si>
   <si>
-    <t>~OB Delivery|Others|Delivery and Collection to client|</t>
+    <t>~OB Delivery|Others|Delivery and Collection to client| R</t>
   </si>
   <si>
     <t>05-15-2015</t>
@@ -785,7 +785,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="n">
-        <v>2.0</v>
+        <v>2.5</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
